--- a/aho.xlsx
+++ b/aho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -37,6 +37,18 @@
     <t>Сергей Александрович Воронов</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Лампа в потолочном светильнике </t>
+  </si>
+  <si>
+    <t>Не задан</t>
+  </si>
+  <si>
+    <t>Новая</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -49,10 +61,16 @@
     <t>Карандаши  - 5</t>
   </si>
   <si>
-    <t>Не задан</t>
-  </si>
-  <si>
-    <t>Новая</t>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Дверной замок </t>
+  </si>
+  <si>
+    <t>Дверная ручка </t>
+  </si>
+  <si>
+    <t>В работе</t>
   </si>
   <si>
     <t>24</t>
@@ -73,13 +91,25 @@
     <t>Дырокол  - 2</t>
   </si>
   <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>Починить тумбу </t>
+  </si>
+  <si>
+    <t>Выключатель </t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
     <t>Лампа в настенном светильнике </t>
   </si>
   <si>
-    <t>Лампа в потолочном светильнике </t>
+    <t>Андрей Анатольевич Акинин</t>
+  </si>
+  <si>
+    <t>224</t>
   </si>
   <si>
     <t>Бумага А3  - 2</t>
@@ -139,7 +169,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -148,7 +178,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -180,7 +210,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -220,10 +250,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
-        <v>43280.2403185</v>
+        <v>43284.5347254</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -235,22 +265,34 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43280.2403185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3"/>
@@ -258,111 +300,111 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43279.8471295</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43279.8657998</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43279.8427078</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43279.8471295</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7">
-        <v>43279.6838278</v>
+        <v>43279.8427078</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -371,88 +413,225 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="n">
-        <v>55</v>
-      </c>
-      <c r="B12" s="7">
-        <v>43279.598308</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43279.6841481</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="7"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B15" s="7">
+        <v>43279.6838278</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43279.6316324</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43279.598308</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
+  <mergeCells count="54">
+    <mergeCell ref="A2:A2"/>
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="D2:D2"/>
+    <mergeCell ref="F2:F2"/>
+    <mergeCell ref="G2:G2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aho.xlsx
+++ b/aho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -37,6 +37,30 @@
     <t>Сергей Александрович Воронов</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Перенос мебели </t>
+  </si>
+  <si>
+    <t>Не задан</t>
+  </si>
+  <si>
+    <t>Новая</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Дверная ручка </t>
+  </si>
+  <si>
+    <t>Дверца шкафа </t>
+  </si>
+  <si>
+    <t>Выполнена</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -46,12 +70,6 @@
     <t>Скотч  - 10</t>
   </si>
   <si>
-    <t>Не задан</t>
-  </si>
-  <si>
-    <t>Новая</t>
-  </si>
-  <si>
     <t>Бумага А3  - 3</t>
   </si>
   <si>
@@ -61,6 +79,21 @@
     <t>Скоросшиватели  - 5</t>
   </si>
   <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Жалюзи </t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Лампа в потолочном светильнике </t>
+  </si>
+  <si>
     <t>Бумага А4  - 5</t>
   </si>
   <si>
@@ -70,6 +103,24 @@
     <t>Карандаши  - 5</t>
   </si>
   <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Дверной замок </t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Офисное кресло </t>
+  </si>
+  <si>
+    <t>Офисный стол </t>
+  </si>
+  <si>
     <t>Карандаши  - 10</t>
   </si>
   <si>
@@ -77,6 +128,18 @@
   </si>
   <si>
     <t>Дырокол  - 2</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике </t>
+  </si>
+  <si>
+    <t>Андрей Анатольевич Акинин</t>
+  </si>
+  <si>
+    <t>224</t>
   </si>
   <si>
     <t>Бумага А3  - 2</t>
@@ -133,7 +196,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="none">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -142,7 +205,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="none">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -174,7 +237,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -214,10 +277,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="7">
-        <v>43292.340098</v>
+        <v>43293.2856885</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -229,89 +292,101 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43292.3406814</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
       <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="n">
-        <v>67</v>
-      </c>
-      <c r="B4" s="7">
-        <v>43292.3379891</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B5" s="7">
+        <v>43292.340098</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="7"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
-        <v>15</v>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B7" s="7">
-        <v>43280.2403185</v>
+        <v>43292.3379891</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -319,8 +394,8 @@
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -330,33 +405,33 @@
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B10" s="7">
-        <v>43279.8427078</v>
+        <v>43292.2629708</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -365,55 +440,79 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43285.3326356</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7">
-        <v>43279.598308</v>
+        <v>43284.5347254</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43280.2403185</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -421,43 +520,334 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="9" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B17" s="7">
+        <v>43279.8657998</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43279.8471295</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7">
+        <v>43279.8427078</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B24" s="7">
+        <v>43279.6838278</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>43279.6316324</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B28" s="7">
+        <v>43279.598308</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
+  <mergeCells count="84">
+    <mergeCell ref="A2:A2"/>
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="D2:D2"/>
+    <mergeCell ref="F2:F2"/>
+    <mergeCell ref="G2:G2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A12:A12"/>
+    <mergeCell ref="B12:B12"/>
+    <mergeCell ref="C12:C12"/>
+    <mergeCell ref="D12:D12"/>
+    <mergeCell ref="F12:F12"/>
+    <mergeCell ref="G12:G12"/>
+    <mergeCell ref="A13:A13"/>
+    <mergeCell ref="B13:B13"/>
+    <mergeCell ref="C13:C13"/>
+    <mergeCell ref="D13:D13"/>
+    <mergeCell ref="F13:F13"/>
+    <mergeCell ref="G13:G13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="G28:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aho.xlsx
+++ b/aho.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Заявки АХО" sheetId="1" r:id="rId1"/>
+    <sheet name="Оперативная обстановка" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#</t>
   </si>
@@ -19,7 +19,7 @@
     <t>Дата подачи</t>
   </si>
   <si>
-    <t>Заявитель</t>
+    <t>Инициатор / Заявитель</t>
   </si>
   <si>
     <t>Срок исполн.</t>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Статус</t>
+  </si>
+  <si>
+    <t>Телефон</t>
   </si>
 </sst>
 </file>
@@ -94,7 +97,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -108,9 +111,10 @@
     <col min="6" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1">
+    <row r="1" spans="1:9" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -135,6 +139,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
